--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lgals1-Ptprc.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lgals1-Ptprc.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.5284428922028</v>
+        <v>27.13486633333333</v>
       </c>
       <c r="H2">
-        <v>15.5284428922028</v>
+        <v>81.40459899999999</v>
       </c>
       <c r="I2">
-        <v>0.03197638189149706</v>
+        <v>0.04747038381101173</v>
       </c>
       <c r="J2">
-        <v>0.03197638189149706</v>
+        <v>0.05206311700485852</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.179585167619945</v>
+        <v>0.2524303333333334</v>
       </c>
       <c r="N2">
-        <v>0.179585167619945</v>
+        <v>0.757291</v>
       </c>
       <c r="O2">
-        <v>0.0003678407018920133</v>
+        <v>0.0004152138066912919</v>
       </c>
       <c r="P2">
-        <v>0.0003678407018920133</v>
+        <v>0.0004153435393530768</v>
       </c>
       <c r="Q2">
-        <v>2.788678019672984</v>
+        <v>6.849663353478778</v>
       </c>
       <c r="R2">
-        <v>2.788678019672984</v>
+        <v>61.64697018130899</v>
       </c>
       <c r="S2">
-        <v>1.176221475893534E-05</v>
+        <v>1.971035876726686E-05</v>
       </c>
       <c r="T2">
-        <v>1.176221475893534E-05</v>
+        <v>2.16240792865513E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.5284428922028</v>
+        <v>27.13486633333333</v>
       </c>
       <c r="H3">
-        <v>15.5284428922028</v>
+        <v>81.40459899999999</v>
       </c>
       <c r="I3">
-        <v>0.03197638189149706</v>
+        <v>0.04747038381101173</v>
       </c>
       <c r="J3">
-        <v>0.03197638189149706</v>
+        <v>0.05206311700485852</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.251586353945863</v>
+        <v>0.3565143333333333</v>
       </c>
       <c r="N3">
-        <v>0.251586353945863</v>
+        <v>1.069543</v>
       </c>
       <c r="O3">
-        <v>0.0005153192897185608</v>
+        <v>0.0005864179297654724</v>
       </c>
       <c r="P3">
-        <v>0.0005153192897185608</v>
+        <v>0.0005866011547876679</v>
       </c>
       <c r="Q3">
-        <v>3.906744329705854</v>
+        <v>9.673968780917443</v>
       </c>
       <c r="R3">
-        <v>3.906744329705854</v>
+        <v>87.06571902825698</v>
       </c>
       <c r="S3">
-        <v>1.647804640409572E-05</v>
+        <v>2.783748419962589E-05</v>
       </c>
       <c r="T3">
-        <v>1.647804640409572E-05</v>
+        <v>3.054028455689547E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.5284428922028</v>
+        <v>27.13486633333333</v>
       </c>
       <c r="H4">
-        <v>15.5284428922028</v>
+        <v>81.40459899999999</v>
       </c>
       <c r="I4">
-        <v>0.03197638189149706</v>
+        <v>0.04747038381101173</v>
       </c>
       <c r="J4">
-        <v>0.03197638189149706</v>
+        <v>0.05206311700485852</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>224.901679852093</v>
+        <v>343.6225723333334</v>
       </c>
       <c r="N4">
-        <v>224.901679852093</v>
+        <v>1030.867717</v>
       </c>
       <c r="O4">
-        <v>0.4606616062444728</v>
+        <v>0.5652127240000627</v>
       </c>
       <c r="P4">
-        <v>0.4606616062444728</v>
+        <v>0.5653893235012776</v>
       </c>
       <c r="Q4">
-        <v>3492.372891943704</v>
+        <v>9324.152569381165</v>
       </c>
       <c r="R4">
-        <v>3492.372891943704</v>
+        <v>83917.37312443048</v>
       </c>
       <c r="S4">
-        <v>0.01473029144402371</v>
+        <v>0.02683086494315042</v>
       </c>
       <c r="T4">
-        <v>0.01473029144402371</v>
+        <v>0.02943593050274482</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.5284428922028</v>
+        <v>27.13486633333333</v>
       </c>
       <c r="H5">
-        <v>15.5284428922028</v>
+        <v>81.40459899999999</v>
       </c>
       <c r="I5">
-        <v>0.03197638189149706</v>
+        <v>0.04747038381101173</v>
       </c>
       <c r="J5">
-        <v>0.03197638189149706</v>
+        <v>0.05206311700485852</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>262.730760991491</v>
+        <v>263.1514486666667</v>
       </c>
       <c r="N5">
-        <v>262.730760991491</v>
+        <v>789.454346</v>
       </c>
       <c r="O5">
-        <v>0.538146155456769</v>
+        <v>0.432848593488691</v>
       </c>
       <c r="P5">
-        <v>0.538146155456769</v>
+        <v>0.4329838361017211</v>
       </c>
       <c r="Q5">
-        <v>4079.799618081352</v>
+        <v>7140.579384993028</v>
       </c>
       <c r="R5">
-        <v>4079.799618081352</v>
+        <v>64265.21446493724</v>
       </c>
       <c r="S5">
-        <v>0.01720796698032659</v>
+        <v>0.02054748886496475</v>
       </c>
       <c r="T5">
-        <v>0.01720796698032659</v>
+        <v>0.02254248812017639</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.5284428922028</v>
+        <v>27.13486633333333</v>
       </c>
       <c r="H6">
-        <v>15.5284428922028</v>
+        <v>81.40459899999999</v>
       </c>
       <c r="I6">
-        <v>0.03197638189149706</v>
+        <v>0.04747038381101173</v>
       </c>
       <c r="J6">
-        <v>0.03197638189149706</v>
+        <v>0.05206311700485852</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.150896513929249</v>
+        <v>0.5696825</v>
       </c>
       <c r="N6">
-        <v>0.150896513929249</v>
+        <v>1.139365</v>
       </c>
       <c r="O6">
-        <v>0.0003090783071476129</v>
+        <v>0.000937050774789659</v>
       </c>
       <c r="P6">
-        <v>0.0003090783071476129</v>
+        <v>0.0006248957028606154</v>
       </c>
       <c r="Q6">
-        <v>2.343187899182827</v>
+        <v>15.45825848993917</v>
       </c>
       <c r="R6">
-        <v>2.343187899182827</v>
+        <v>92.74955093963499</v>
       </c>
       <c r="S6">
-        <v>9.883205983729497E-06</v>
+        <v>4.448215992967103E-05</v>
       </c>
       <c r="T6">
-        <v>9.883205983729497E-06</v>
+        <v>3.253401809386552E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>192.6456137956</v>
+        <v>207.121208</v>
       </c>
       <c r="H7">
-        <v>192.6456137956</v>
+        <v>621.3636240000001</v>
       </c>
       <c r="I7">
-        <v>0.3966984815678524</v>
+        <v>0.3623427924198875</v>
       </c>
       <c r="J7">
-        <v>0.3966984815678524</v>
+        <v>0.3973992557702412</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.179585167619945</v>
+        <v>0.2524303333333334</v>
       </c>
       <c r="N7">
-        <v>0.179585167619945</v>
+        <v>0.757291</v>
       </c>
       <c r="O7">
-        <v>0.0003678407018920133</v>
+        <v>0.0004152138066912919</v>
       </c>
       <c r="P7">
-        <v>0.0003678407018920133</v>
+        <v>0.0004153435393530768</v>
       </c>
       <c r="Q7">
-        <v>34.59629484473002</v>
+        <v>52.28367557584268</v>
       </c>
       <c r="R7">
-        <v>34.59629484473002</v>
+        <v>470.5530801825841</v>
       </c>
       <c r="S7">
-        <v>0.0001459218478994147</v>
+        <v>0.0001504497301678141</v>
       </c>
       <c r="T7">
-        <v>0.0001459218478994147</v>
+        <v>0.0001650572134278906</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>192.6456137956</v>
+        <v>207.121208</v>
       </c>
       <c r="H8">
-        <v>192.6456137956</v>
+        <v>621.3636240000001</v>
       </c>
       <c r="I8">
-        <v>0.3966984815678524</v>
+        <v>0.3623427924198875</v>
       </c>
       <c r="J8">
-        <v>0.3966984815678524</v>
+        <v>0.3973992557702412</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.251586353945863</v>
+        <v>0.3565143333333333</v>
       </c>
       <c r="N8">
-        <v>0.251586353945863</v>
+        <v>1.069543</v>
       </c>
       <c r="O8">
-        <v>0.0005153192897185608</v>
+        <v>0.0005864179297654724</v>
       </c>
       <c r="P8">
-        <v>0.0005153192897185608</v>
+        <v>0.0005866011547876679</v>
       </c>
       <c r="Q8">
-        <v>48.46700757849785</v>
+        <v>73.84167938931468</v>
       </c>
       <c r="R8">
-        <v>48.46700757849785</v>
+        <v>664.575114503832</v>
       </c>
       <c r="S8">
-        <v>0.0002044263797539773</v>
+        <v>0.0002124843101963108</v>
       </c>
       <c r="T8">
-        <v>0.0002044263797539773</v>
+        <v>0.0002331148623465833</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>192.6456137956</v>
+        <v>207.121208</v>
       </c>
       <c r="H9">
-        <v>192.6456137956</v>
+        <v>621.3636240000001</v>
       </c>
       <c r="I9">
-        <v>0.3966984815678524</v>
+        <v>0.3623427924198875</v>
       </c>
       <c r="J9">
-        <v>0.3966984815678524</v>
+        <v>0.3973992557702412</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>224.901679852093</v>
+        <v>343.6225723333334</v>
       </c>
       <c r="N9">
-        <v>224.901679852093</v>
+        <v>1030.867717</v>
       </c>
       <c r="O9">
-        <v>0.4606616062444728</v>
+        <v>0.5652127240000627</v>
       </c>
       <c r="P9">
-        <v>0.4606616062444728</v>
+        <v>0.5653893235012776</v>
       </c>
       <c r="Q9">
-        <v>43326.32215876799</v>
+        <v>71171.5222777474</v>
       </c>
       <c r="R9">
-        <v>43326.32215876799</v>
+        <v>640543.7004997266</v>
       </c>
       <c r="S9">
-        <v>0.1827437597137903</v>
+        <v>0.2048007567254339</v>
       </c>
       <c r="T9">
-        <v>0.1827437597137903</v>
+        <v>0.2246852963798479</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>192.6456137956</v>
+        <v>207.121208</v>
       </c>
       <c r="H10">
-        <v>192.6456137956</v>
+        <v>621.3636240000001</v>
       </c>
       <c r="I10">
-        <v>0.3966984815678524</v>
+        <v>0.3623427924198875</v>
       </c>
       <c r="J10">
-        <v>0.3966984815678524</v>
+        <v>0.3973992557702412</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>262.730760991491</v>
+        <v>263.1514486666667</v>
       </c>
       <c r="N10">
-        <v>262.730760991491</v>
+        <v>789.454346</v>
       </c>
       <c r="O10">
-        <v>0.538146155456769</v>
+        <v>0.432848593488691</v>
       </c>
       <c r="P10">
-        <v>0.538146155456769</v>
+        <v>0.4329838361017211</v>
       </c>
       <c r="Q10">
-        <v>50613.92871419087</v>
+        <v>54504.24593479</v>
       </c>
       <c r="R10">
-        <v>50613.92871419087</v>
+        <v>490538.2134131099</v>
       </c>
       <c r="S10">
-        <v>0.2134817627312777</v>
+        <v>0.1568395680597131</v>
       </c>
       <c r="T10">
-        <v>0.2134817627312777</v>
+        <v>0.1720674542273681</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>192.6456137956</v>
+        <v>207.121208</v>
       </c>
       <c r="H11">
-        <v>192.6456137956</v>
+        <v>621.3636240000001</v>
       </c>
       <c r="I11">
-        <v>0.3966984815678524</v>
+        <v>0.3623427924198875</v>
       </c>
       <c r="J11">
-        <v>0.3966984815678524</v>
+        <v>0.3973992557702412</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.150896513929249</v>
+        <v>0.5696825</v>
       </c>
       <c r="N11">
-        <v>0.150896513929249</v>
+        <v>1.139365</v>
       </c>
       <c r="O11">
-        <v>0.0003090783071476129</v>
+        <v>0.000937050774789659</v>
       </c>
       <c r="P11">
-        <v>0.0003090783071476129</v>
+        <v>0.0006248957028606154</v>
       </c>
       <c r="Q11">
-        <v>29.06955154551648</v>
+        <v>117.99332757646</v>
       </c>
       <c r="R11">
-        <v>29.06955154551648</v>
+        <v>707.9599654587601</v>
       </c>
       <c r="S11">
-        <v>0.0001226108951310204</v>
+        <v>0.0003395335943765042</v>
       </c>
       <c r="T11">
-        <v>0.0001226108951310204</v>
+        <v>0.0002483330872508304</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>83.644635731249</v>
+        <v>84.750407</v>
       </c>
       <c r="H12">
-        <v>83.644635731249</v>
+        <v>254.251221</v>
       </c>
       <c r="I12">
-        <v>0.1722421773956863</v>
+        <v>0.1482643879283573</v>
       </c>
       <c r="J12">
-        <v>0.1722421773956863</v>
+        <v>0.1626088848807073</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.179585167619945</v>
+        <v>0.2524303333333334</v>
       </c>
       <c r="N12">
-        <v>0.179585167619945</v>
+        <v>0.757291</v>
       </c>
       <c r="O12">
-        <v>0.0003678407018920133</v>
+        <v>0.0004152138066912919</v>
       </c>
       <c r="P12">
-        <v>0.0003678407018920133</v>
+        <v>0.0004153435393530768</v>
       </c>
       <c r="Q12">
-        <v>15.02133592830559</v>
+        <v>21.39357348914567</v>
       </c>
       <c r="R12">
-        <v>15.02133592830559</v>
+        <v>192.542161402311</v>
       </c>
       <c r="S12">
-        <v>6.335768342863791E-05</v>
+        <v>6.156142090848766E-05</v>
       </c>
       <c r="T12">
-        <v>6.335768342863791E-05</v>
+        <v>6.753854977661E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>83.644635731249</v>
+        <v>84.750407</v>
       </c>
       <c r="H13">
-        <v>83.644635731249</v>
+        <v>254.251221</v>
       </c>
       <c r="I13">
-        <v>0.1722421773956863</v>
+        <v>0.1482643879283573</v>
       </c>
       <c r="J13">
-        <v>0.1722421773956863</v>
+        <v>0.1626088848807073</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.251586353945863</v>
+        <v>0.3565143333333333</v>
       </c>
       <c r="N13">
-        <v>0.251586353945863</v>
+        <v>1.069543</v>
       </c>
       <c r="O13">
-        <v>0.0005153192897185608</v>
+        <v>0.0005864179297654724</v>
       </c>
       <c r="P13">
-        <v>0.0005153192897185608</v>
+        <v>0.0005866011547876679</v>
       </c>
       <c r="Q13">
-        <v>21.04384893075479</v>
+        <v>30.21473485133366</v>
       </c>
       <c r="R13">
-        <v>21.04384893075479</v>
+        <v>271.932613662003</v>
       </c>
       <c r="S13">
-        <v>8.875971651512339E-05</v>
+        <v>8.694489542689217E-05</v>
       </c>
       <c r="T13">
-        <v>8.875971651512339E-05</v>
+        <v>9.538655964975786E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>83.644635731249</v>
+        <v>84.750407</v>
       </c>
       <c r="H14">
-        <v>83.644635731249</v>
+        <v>254.251221</v>
       </c>
       <c r="I14">
-        <v>0.1722421773956863</v>
+        <v>0.1482643879283573</v>
       </c>
       <c r="J14">
-        <v>0.1722421773956863</v>
+        <v>0.1626088848807073</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>224.901679852093</v>
+        <v>343.6225723333334</v>
       </c>
       <c r="N14">
-        <v>224.901679852093</v>
+        <v>1030.867717</v>
       </c>
       <c r="O14">
-        <v>0.4606616062444728</v>
+        <v>0.5652127240000627</v>
       </c>
       <c r="P14">
-        <v>0.4606616062444728</v>
+        <v>0.5653893235012776</v>
       </c>
       <c r="Q14">
-        <v>18811.8190865743</v>
+        <v>29122.15285963694</v>
       </c>
       <c r="R14">
-        <v>18811.8190865743</v>
+        <v>262099.3757367325</v>
       </c>
       <c r="S14">
-        <v>0.07934535810214227</v>
+        <v>0.08380091857318883</v>
       </c>
       <c r="T14">
-        <v>0.07934535810214227</v>
+        <v>0.09193732741800023</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>83.644635731249</v>
+        <v>84.750407</v>
       </c>
       <c r="H15">
-        <v>83.644635731249</v>
+        <v>254.251221</v>
       </c>
       <c r="I15">
-        <v>0.1722421773956863</v>
+        <v>0.1482643879283573</v>
       </c>
       <c r="J15">
-        <v>0.1722421773956863</v>
+        <v>0.1626088848807073</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>262.730760991491</v>
+        <v>263.1514486666667</v>
       </c>
       <c r="N15">
-        <v>262.730760991491</v>
+        <v>789.454346</v>
       </c>
       <c r="O15">
-        <v>0.538146155456769</v>
+        <v>0.432848593488691</v>
       </c>
       <c r="P15">
-        <v>0.538146155456769</v>
+        <v>0.4329838361017211</v>
       </c>
       <c r="Q15">
-        <v>21976.01879852711</v>
+        <v>22302.19237713961</v>
       </c>
       <c r="R15">
-        <v>21976.01879852711</v>
+        <v>200719.7313942565</v>
       </c>
       <c r="S15">
-        <v>0.09269146557299138</v>
+        <v>0.0641760317792511</v>
       </c>
       <c r="T15">
-        <v>0.09269146557299138</v>
+        <v>0.07040701875987182</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>83.644635731249</v>
+        <v>84.750407</v>
       </c>
       <c r="H16">
-        <v>83.644635731249</v>
+        <v>254.251221</v>
       </c>
       <c r="I16">
-        <v>0.1722421773956863</v>
+        <v>0.1482643879283573</v>
       </c>
       <c r="J16">
-        <v>0.1722421773956863</v>
+        <v>0.1626088848807073</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.150896513929249</v>
+        <v>0.5696825</v>
       </c>
       <c r="N16">
-        <v>0.150896513929249</v>
+        <v>1.139365</v>
       </c>
       <c r="O16">
-        <v>0.0003090783071476129</v>
+        <v>0.000937050774789659</v>
       </c>
       <c r="P16">
-        <v>0.0003090783071476129</v>
+        <v>0.0006248957028606154</v>
       </c>
       <c r="Q16">
-        <v>12.62168394072737</v>
+        <v>48.2808237357775</v>
       </c>
       <c r="R16">
-        <v>12.62168394072737</v>
+        <v>289.684942414665</v>
       </c>
       <c r="S16">
-        <v>5.323632060887756E-05</v>
+        <v>0.0001389312595819818</v>
       </c>
       <c r="T16">
-        <v>5.323632060887756E-05</v>
+        <v>0.0001016135934089105</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>93.8765938314969</v>
+        <v>101.3352343333333</v>
       </c>
       <c r="H17">
-        <v>93.8765938314969</v>
+        <v>304.005703</v>
       </c>
       <c r="I17">
-        <v>0.1933119653958476</v>
+        <v>0.1772782813185584</v>
       </c>
       <c r="J17">
-        <v>0.1933119653958476</v>
+        <v>0.1944298562963656</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.179585167619945</v>
+        <v>0.2524303333333334</v>
       </c>
       <c r="N17">
-        <v>0.179585167619945</v>
+        <v>0.757291</v>
       </c>
       <c r="O17">
-        <v>0.0003678407018920133</v>
+        <v>0.0004152138066912919</v>
       </c>
       <c r="P17">
-        <v>0.0003678407018920133</v>
+        <v>0.0004153435393530768</v>
       </c>
       <c r="Q17">
-        <v>16.85884383881887</v>
+        <v>25.58008698117478</v>
       </c>
       <c r="R17">
-        <v>16.85884383881887</v>
+        <v>230.220782830573</v>
       </c>
       <c r="S17">
-        <v>7.110800903533315E-05</v>
+        <v>7.360839002996838E-05</v>
       </c>
       <c r="T17">
-        <v>7.110800903533315E-05</v>
+        <v>8.07551846700426E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>93.8765938314969</v>
+        <v>101.3352343333333</v>
       </c>
       <c r="H18">
-        <v>93.8765938314969</v>
+        <v>304.005703</v>
       </c>
       <c r="I18">
-        <v>0.1933119653958476</v>
+        <v>0.1772782813185584</v>
       </c>
       <c r="J18">
-        <v>0.1933119653958476</v>
+        <v>0.1944298562963656</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.251586353945863</v>
+        <v>0.3565143333333333</v>
       </c>
       <c r="N18">
-        <v>0.251586353945863</v>
+        <v>1.069543</v>
       </c>
       <c r="O18">
-        <v>0.0005153192897185608</v>
+        <v>0.0005864179297654724</v>
       </c>
       <c r="P18">
-        <v>0.0005153192897185608</v>
+        <v>0.0005866011547876679</v>
       </c>
       <c r="Q18">
-        <v>23.618069962923</v>
+        <v>36.12746351152544</v>
       </c>
       <c r="R18">
-        <v>23.618069962923</v>
+        <v>325.147171603729</v>
       </c>
       <c r="S18">
-        <v>9.961738470188716E-05</v>
+        <v>0.00010395916272321</v>
       </c>
       <c r="T18">
-        <v>9.961738470188716E-05</v>
+        <v>0.0001140527782286484</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>93.8765938314969</v>
+        <v>101.3352343333333</v>
       </c>
       <c r="H19">
-        <v>93.8765938314969</v>
+        <v>304.005703</v>
       </c>
       <c r="I19">
-        <v>0.1933119653958476</v>
+        <v>0.1772782813185584</v>
       </c>
       <c r="J19">
-        <v>0.1933119653958476</v>
+        <v>0.1944298562963656</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>224.901679852093</v>
+        <v>343.6225723333334</v>
       </c>
       <c r="N19">
-        <v>224.901679852093</v>
+        <v>1030.867717</v>
       </c>
       <c r="O19">
-        <v>0.4606616062444728</v>
+        <v>0.5652127240000627</v>
       </c>
       <c r="P19">
-        <v>0.4606616062444728</v>
+        <v>0.5653893235012776</v>
       </c>
       <c r="Q19">
-        <v>21113.00365149628</v>
+        <v>34821.07388962112</v>
       </c>
       <c r="R19">
-        <v>21113.00365149628</v>
+        <v>313389.6650065901</v>
       </c>
       <c r="S19">
-        <v>0.08905140048552708</v>
+        <v>0.1001999402901118</v>
       </c>
       <c r="T19">
-        <v>0.08905140048552708</v>
+        <v>0.1099285649198528</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>93.8765938314969</v>
+        <v>101.3352343333333</v>
       </c>
       <c r="H20">
-        <v>93.8765938314969</v>
+        <v>304.005703</v>
       </c>
       <c r="I20">
-        <v>0.1933119653958476</v>
+        <v>0.1772782813185584</v>
       </c>
       <c r="J20">
-        <v>0.1933119653958476</v>
+        <v>0.1944298562963656</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>262.730760991491</v>
+        <v>263.1514486666667</v>
       </c>
       <c r="N20">
-        <v>262.730760991491</v>
+        <v>789.454346</v>
       </c>
       <c r="O20">
-        <v>0.538146155456769</v>
+        <v>0.432848593488691</v>
       </c>
       <c r="P20">
-        <v>0.538146155456769</v>
+        <v>0.4329838361017211</v>
       </c>
       <c r="Q20">
-        <v>24664.26893663829</v>
+        <v>26666.5137157928</v>
       </c>
       <c r="R20">
-        <v>24664.26893663829</v>
+        <v>239998.6234421352</v>
       </c>
       <c r="S20">
-        <v>0.1040300909815673</v>
+        <v>0.07673465472483049</v>
       </c>
       <c r="T20">
-        <v>0.1040300909815673</v>
+        <v>0.08418498503190676</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>93.8765938314969</v>
+        <v>101.3352343333333</v>
       </c>
       <c r="H21">
-        <v>93.8765938314969</v>
+        <v>304.005703</v>
       </c>
       <c r="I21">
-        <v>0.1933119653958476</v>
+        <v>0.1772782813185584</v>
       </c>
       <c r="J21">
-        <v>0.1933119653958476</v>
+        <v>0.1944298562963656</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.150896513929249</v>
+        <v>0.5696825</v>
       </c>
       <c r="N21">
-        <v>0.150896513929249</v>
+        <v>1.139365</v>
       </c>
       <c r="O21">
-        <v>0.0003090783071476129</v>
+        <v>0.000937050774789659</v>
       </c>
       <c r="P21">
-        <v>0.0003090783071476129</v>
+        <v>0.0006248957028606154</v>
       </c>
       <c r="Q21">
-        <v>14.16565074872492</v>
+        <v>57.72890963309916</v>
       </c>
       <c r="R21">
-        <v>14.16565074872492</v>
+        <v>346.373457798595</v>
       </c>
       <c r="S21">
-        <v>5.974853501592649E-05</v>
+        <v>0.0001661187508629343</v>
       </c>
       <c r="T21">
-        <v>5.974853501592649E-05</v>
+        <v>0.0001214983817074058</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>99.9269753578547</v>
+        <v>151.2750305</v>
       </c>
       <c r="H22">
-        <v>99.9269753578547</v>
+        <v>302.550061</v>
       </c>
       <c r="I22">
-        <v>0.2057709937491167</v>
+        <v>0.2646441545221851</v>
       </c>
       <c r="J22">
-        <v>0.2057709937491167</v>
+        <v>0.1934988860478274</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.179585167619945</v>
+        <v>0.2524303333333334</v>
       </c>
       <c r="N22">
-        <v>0.179585167619945</v>
+        <v>0.757291</v>
       </c>
       <c r="O22">
-        <v>0.0003678407018920133</v>
+        <v>0.0004152138066912919</v>
       </c>
       <c r="P22">
-        <v>0.0003678407018920133</v>
+        <v>0.0004153435393530768</v>
       </c>
       <c r="Q22">
-        <v>17.94540261939445</v>
+        <v>38.18640637412517</v>
       </c>
       <c r="R22">
-        <v>17.94540261939445</v>
+        <v>229.118438244751</v>
       </c>
       <c r="S22">
-        <v>7.569094676969217E-05</v>
+        <v>0.000109883906817755</v>
       </c>
       <c r="T22">
-        <v>7.569094676969217E-05</v>
+        <v>8.036851219198231E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>99.9269753578547</v>
+        <v>151.2750305</v>
       </c>
       <c r="H23">
-        <v>99.9269753578547</v>
+        <v>302.550061</v>
       </c>
       <c r="I23">
-        <v>0.2057709937491167</v>
+        <v>0.2646441545221851</v>
       </c>
       <c r="J23">
-        <v>0.2057709937491167</v>
+        <v>0.1934988860478274</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.251586353945863</v>
+        <v>0.3565143333333333</v>
       </c>
       <c r="N23">
-        <v>0.251586353945863</v>
+        <v>1.069543</v>
       </c>
       <c r="O23">
-        <v>0.0005153192897185608</v>
+        <v>0.0005864179297654724</v>
       </c>
       <c r="P23">
-        <v>0.0005153192897185608</v>
+        <v>0.0005866011547876679</v>
       </c>
       <c r="Q23">
-        <v>25.14026339112076</v>
+        <v>53.93171664868716</v>
       </c>
       <c r="R23">
-        <v>25.14026339112076</v>
+        <v>323.5902998921229</v>
       </c>
       <c r="S23">
-        <v>0.0001060377623434772</v>
+        <v>0.0001551920772194336</v>
       </c>
       <c r="T23">
-        <v>0.0001060377623434772</v>
+        <v>0.0001135066700057829</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>99.9269753578547</v>
+        <v>151.2750305</v>
       </c>
       <c r="H24">
-        <v>99.9269753578547</v>
+        <v>302.550061</v>
       </c>
       <c r="I24">
-        <v>0.2057709937491167</v>
+        <v>0.2646441545221851</v>
       </c>
       <c r="J24">
-        <v>0.2057709937491167</v>
+        <v>0.1934988860478274</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>224.901679852093</v>
+        <v>343.6225723333334</v>
       </c>
       <c r="N24">
-        <v>224.901679852093</v>
+        <v>1030.867717</v>
       </c>
       <c r="O24">
-        <v>0.4606616062444728</v>
+        <v>0.5652127240000627</v>
       </c>
       <c r="P24">
-        <v>0.4606616062444728</v>
+        <v>0.5653893235012776</v>
       </c>
       <c r="Q24">
-        <v>22473.74462052022</v>
+        <v>51981.51511021346</v>
       </c>
       <c r="R24">
-        <v>22473.74462052022</v>
+        <v>311889.0906612807</v>
       </c>
       <c r="S24">
-        <v>0.09479079649898949</v>
+        <v>0.1495802434681777</v>
       </c>
       <c r="T24">
-        <v>0.09479079649898949</v>
+        <v>0.1094022042808319</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>99.9269753578547</v>
+        <v>151.2750305</v>
       </c>
       <c r="H25">
-        <v>99.9269753578547</v>
+        <v>302.550061</v>
       </c>
       <c r="I25">
-        <v>0.2057709937491167</v>
+        <v>0.2646441545221851</v>
       </c>
       <c r="J25">
-        <v>0.2057709937491167</v>
+        <v>0.1934988860478274</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>262.730760991491</v>
+        <v>263.1514486666667</v>
       </c>
       <c r="N25">
-        <v>262.730760991491</v>
+        <v>789.454346</v>
       </c>
       <c r="O25">
-        <v>0.538146155456769</v>
+        <v>0.432848593488691</v>
       </c>
       <c r="P25">
-        <v>0.538146155456769</v>
+        <v>0.4329838361017211</v>
       </c>
       <c r="Q25">
-        <v>26253.89027934714</v>
+        <v>39808.24342316918</v>
       </c>
       <c r="R25">
-        <v>26253.89027934714</v>
+        <v>238849.4605390151</v>
       </c>
       <c r="S25">
-        <v>0.110734869190606</v>
+        <v>0.1145508500599316</v>
       </c>
       <c r="T25">
-        <v>0.110734869190606</v>
+        <v>0.0837818899623981</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>99.9269753578547</v>
+        <v>151.2750305</v>
       </c>
       <c r="H26">
-        <v>99.9269753578547</v>
+        <v>302.550061</v>
       </c>
       <c r="I26">
-        <v>0.2057709937491167</v>
+        <v>0.2646441545221851</v>
       </c>
       <c r="J26">
-        <v>0.2057709937491167</v>
+        <v>0.1934988860478274</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.150896513929249</v>
+        <v>0.5696825</v>
       </c>
       <c r="N26">
-        <v>0.150896513929249</v>
+        <v>1.139365</v>
       </c>
       <c r="O26">
-        <v>0.0003090783071476129</v>
+        <v>0.000937050774789659</v>
       </c>
       <c r="P26">
-        <v>0.0003090783071476129</v>
+        <v>0.0006248957028606154</v>
       </c>
       <c r="Q26">
-        <v>15.07863222899424</v>
+        <v>86.17873756281624</v>
       </c>
       <c r="R26">
-        <v>15.07863222899424</v>
+        <v>344.714950251265</v>
       </c>
       <c r="S26">
-        <v>6.359935040805904E-05</v>
+        <v>0.0002479850100385678</v>
       </c>
       <c r="T26">
-        <v>6.359935040805904E-05</v>
+        <v>0.0001209166223996032</v>
       </c>
     </row>
   </sheetData>
